--- a/data/long_bre/P50-Estudios-long_bre.xlsx
+++ b/data/long_bre/P50-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,38</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-20,72%</t>
+          <t>-14,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>-13,52%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-37,72%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 4,02</t>
+          <t>-9,59; 16,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 11,21</t>
+          <t>-25,64; 8,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 9,82</t>
+          <t>-7,47; 9,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-47,25; 16,04</t>
+          <t>-41,9; -0,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 53,42</t>
+          <t>-25,97; 79,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 43,23</t>
+          <t>-54,43; 37,35</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-24,51; 44,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-70,09; 1,05</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 15,99</t>
+          <t>-15,38; 14,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 14,15</t>
+          <t>-13,27; 14,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 15,86</t>
+          <t>-3,03; 15,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 55,53</t>
+          <t>-6,85; 21,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 51,42</t>
+          <t>-33,46; 49,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 52,61</t>
+          <t>-29,93; 51,34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; 53,11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-15,29; 86,16</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,48</t>
+          <t>-7,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,46%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,51%</t>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-19,65%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31,48%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 12,9</t>
+          <t>-22,73; 11,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 9,88</t>
+          <t>-8,49; 18,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 2,03</t>
+          <t>-19,9; 3,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 60,75</t>
+          <t>-4,31; 23,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,83; 33,81</t>
+          <t>-53,46; 46,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 7,28</t>
+          <t>-22,3; 88,7</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-42,8; 11,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-13,77; 142,23</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,06%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 3,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 3,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 7,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 12,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 15,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 31,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-14,07%</t>
+          <t>-4,71%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,35%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 12,05</t>
+          <t>-12,97; 5,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 9,97</t>
+          <t>-9,65; 5,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -0,01</t>
+          <t>-4,96; 7,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 31,42</t>
+          <t>-12,09; 5,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 25,98</t>
+          <t>-30,13; 17,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,39; -0,05</t>
+          <t>-32,05; 28,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-15,28; 31,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-33,3; 19,59</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-13,74%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,19%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 4,17</t>
+          <t>-9,04; 9,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 8,07</t>
+          <t>-8,2; 8,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 11,42</t>
+          <t>-14,04; 0,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 22,59</t>
+          <t>-8,91; 8,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 29,71</t>
+          <t>-17,95; 24,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 57,76</t>
+          <t>-17,03; 21,92</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-26,68; 0,75</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-20,68; 24,52</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22,33%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 8,75</t>
+          <t>-3,99; 9,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 8,34</t>
+          <t>-7,45; 9,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 6,61</t>
+          <t>-1,48; 11,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 37,83</t>
+          <t>-4,79; 11,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 46,16</t>
+          <t>-17,54; 61,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 34,46</t>
+          <t>-20,56; 35,22</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 57,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-13,59; 46,63</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 5,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 9,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 11,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 6,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 17,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-12,22%</t>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-20,01%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 7,61</t>
+          <t>-5,54; 12,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 11,49</t>
+          <t>-7,61; 7,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 2,83</t>
+          <t>-6,19; 7,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 47,35</t>
+          <t>-15,03; 2,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 56,66</t>
+          <t>-19,21; 60,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 17,34</t>
+          <t>-27,32; 42,68</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-22,14; 39,29</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-43,27; 13,54</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>-12,12%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 1,97</t>
+          <t>-9,84; 10,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 3,45</t>
+          <t>-15,27; 2,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,83</t>
+          <t>-4,95; 9,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 6,65</t>
+          <t>-7,29; 9,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 15,38</t>
+          <t>-17,29; 22,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 19,92</t>
+          <t>-25,74; 6,0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; 18,41</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,04; 22,91</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-19,26%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>29,65%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-11,27%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 7,93</t>
+          <t>-12,66; 4,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 4,1</t>
+          <t>-1,43; 14,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,2</t>
+          <t>-7,83; 3,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 19,17</t>
+          <t>-3,73; 11,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 9,88</t>
+          <t>-46,61; 27,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 6,94</t>
+          <t>-5,57; 84,9</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-34,91; 20,35</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-12,35; 52,28</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,838 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 3,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 21,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 22,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 17,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-5,51</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-16,06%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-12,43; 1,74</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 11,27</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-32,8; 5,48</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-29,63; 66,44</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>5,17</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 12,41</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-8,49; 14,4</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 32,52</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-17,38; 40,0</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-4,55</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-13,16%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 6,48</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-17,54; 5,94</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-26,05; 33,87</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-40,91; 22,4</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>-6,18</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-6,14%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-2,14%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-19,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 2,33</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 4,52</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 4,84</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-12,73; -0,22</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-20,45; 8,08</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-19,35; 20,34</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-10,52; 20,35</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-35,92; -0,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-2,29%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 7,1</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 4,06</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 3,63</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 7,16</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 17,12</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-12,73; 9,75</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-11,72; 8,07</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-10,6; 18,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-0,3%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 3,8</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 7,11</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 4,17</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 9,84</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-17,73; 19,08</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-11,01; 27,68</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-16,34; 18,9</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; 39,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
